--- a/Archivos de trabajo/Vale/ITCRM/Metodología en R/comparacion/ITCRM_MOA.xlsx
+++ b/Archivos de trabajo/Vale/ITCRM/Metodología en R/comparacion/ITCRM_MOA.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve">mes</t>
   </si>
   <si>
-    <t xml:space="preserve">itcrm_geo</t>
+    <t xml:space="preserve">itcrm_factor</t>
   </si>
   <si>
-    <t xml:space="preserve">itcrm_geo_2002_100</t>
+    <t xml:space="preserve">itcrm_nivel</t>
   </si>
 </sst>
 </file>
@@ -371,3038 +371,3302 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>37257</v>
+        <v>36892</v>
       </c>
       <c r="B2" t="n">
-        <v>0.422304225751417</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>64.1892848701347</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37288</v>
+        <v>36923</v>
       </c>
       <c r="B3" t="n">
-        <v>0.526877341835896</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>80.0841614278121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>37316</v>
+        <v>36951</v>
       </c>
       <c r="B4" t="n">
-        <v>0.598303797018229</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>90.9408206781543</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>37347</v>
+        <v>36982</v>
       </c>
       <c r="B5" t="n">
-        <v>0.638790189619278</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>97.0946605631535</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>37377</v>
+        <v>37012</v>
       </c>
       <c r="B6" t="n">
-        <v>0.705547356056639</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>107.241598510427</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>37408</v>
+        <v>37043</v>
       </c>
       <c r="B7" t="n">
-        <v>0.741663945748191</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>112.731238260358</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>37438</v>
+        <v>37073</v>
       </c>
       <c r="B8" t="n">
-        <v>0.728661739450763</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>110.754932381626</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>37469</v>
+        <v>37104</v>
       </c>
       <c r="B9" t="n">
-        <v>0.712350407090627</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>108.275646843781</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>37500</v>
+        <v>37135</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7115999939893</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>108.161585753708</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>37530</v>
+        <v>37165</v>
       </c>
       <c r="B11" t="n">
-        <v>0.71045814270187</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>107.988026946813</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>37561</v>
+        <v>37196</v>
       </c>
       <c r="B12" t="n">
-        <v>0.699857602955017</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>106.376768938734</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>37591</v>
+        <v>37226</v>
       </c>
       <c r="B13" t="n">
-        <v>0.698439857377826</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>106.1612748253</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>37622</v>
+        <v>37257</v>
       </c>
       <c r="B14" t="n">
-        <v>0.595581087918276</v>
+        <v>1.35678250335143</v>
       </c>
       <c r="C14" t="n">
-        <v>90.5269750678613</v>
+        <v>135.678250335143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>37653</v>
+        <v>37288</v>
       </c>
       <c r="B15" t="n">
-        <v>0.584594033697896</v>
+        <v>1.34470077274406</v>
       </c>
       <c r="C15" t="n">
-        <v>88.8569677361073</v>
+        <v>182.446648070229</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>37681</v>
+        <v>37316</v>
       </c>
       <c r="B16" t="n">
-        <v>0.569849163431878</v>
+        <v>1.18561899659899</v>
       </c>
       <c r="C16" t="n">
-        <v>86.6157808851005</v>
+        <v>216.312211817874</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>37712</v>
+        <v>37347</v>
       </c>
       <c r="B17" t="n">
-        <v>0.547047361900881</v>
+        <v>1.09164937730459</v>
       </c>
       <c r="C17" t="n">
-        <v>83.1499587484143</v>
+        <v>236.137091334361</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>37742</v>
+        <v>37377</v>
       </c>
       <c r="B18" t="n">
-        <v>0.554419163221043</v>
+        <v>1.14235718119714</v>
       </c>
       <c r="C18" t="n">
-        <v>84.2704558358018</v>
+        <v>269.752902032811</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>37773</v>
+        <v>37408</v>
       </c>
       <c r="B19" t="n">
-        <v>0.550720013291766</v>
+        <v>1.06916846294427</v>
       </c>
       <c r="C19" t="n">
-        <v>83.7081934332288</v>
+        <v>288.411295641178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>37803</v>
+        <v>37438</v>
       </c>
       <c r="B20" t="n">
-        <v>0.542612315823271</v>
+        <v>0.976591758176346</v>
       </c>
       <c r="C20" t="n">
-        <v>82.4758417997113</v>
+        <v>281.660094288136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>37834</v>
+        <v>37469</v>
       </c>
       <c r="B21" t="n">
-        <v>0.558307608903135</v>
+        <v>0.970112767374198</v>
       </c>
       <c r="C21" t="n">
-        <v>84.8614907636331</v>
+        <v>273.242053528741</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>37865</v>
+        <v>37500</v>
       </c>
       <c r="B22" t="n">
-        <v>0.562066965873409</v>
+        <v>0.998612493063521</v>
       </c>
       <c r="C22" t="n">
-        <v>85.4329044999368</v>
+        <v>272.862928284132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>37895</v>
+        <v>37530</v>
       </c>
       <c r="B23" t="n">
-        <v>0.560562177444758</v>
+        <v>0.997255192782026</v>
       </c>
       <c r="C23" t="n">
-        <v>85.2041800704237</v>
+        <v>272.11397214906</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>37926</v>
+        <v>37561</v>
       </c>
       <c r="B24" t="n">
-        <v>0.564981811065092</v>
+        <v>0.980075681005762</v>
       </c>
       <c r="C24" t="n">
-        <v>85.8759543605636</v>
+        <v>266.692286565173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>37956</v>
+        <v>37591</v>
       </c>
       <c r="B25" t="n">
-        <v>0.589777845625422</v>
+        <v>0.997310645962403</v>
       </c>
       <c r="C25" t="n">
-        <v>89.6448953964025</v>
+        <v>265.975056587503</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>37987</v>
+        <v>37622</v>
       </c>
       <c r="B26" t="n">
-        <v>0.598269325129694</v>
+        <v>0.94624857493001</v>
       </c>
       <c r="C26" t="n">
-        <v>90.9355810292513</v>
+        <v>251.678518262854</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>38018</v>
+        <v>37653</v>
       </c>
       <c r="B27" t="n">
-        <v>0.606003093261125</v>
+        <v>0.975763963861692</v>
       </c>
       <c r="C27" t="n">
-        <v>92.1110962513041</v>
+        <v>245.578828598999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>38047</v>
+        <v>37681</v>
       </c>
       <c r="B28" t="n">
-        <v>0.594380506016351</v>
+        <v>0.966951374915301</v>
       </c>
       <c r="C28" t="n">
-        <v>90.3444893407164</v>
+        <v>237.462785963892</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>38078</v>
+        <v>37712</v>
       </c>
       <c r="B29" t="n">
-        <v>0.579704802619435</v>
+        <v>0.947660930696314</v>
       </c>
       <c r="C29" t="n">
-        <v>88.1138156969988</v>
+        <v>225.034204752281</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>38108</v>
+        <v>37742</v>
       </c>
       <c r="B30" t="n">
-        <v>0.587783338696406</v>
+        <v>1.01776197840987</v>
       </c>
       <c r="C30" t="n">
-        <v>89.3417348651191</v>
+        <v>229.031257438572</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>38139</v>
+        <v>37773</v>
       </c>
       <c r="B31" t="n">
-        <v>0.59406733323647</v>
+        <v>0.991241001461043</v>
       </c>
       <c r="C31" t="n">
-        <v>90.2968877881969</v>
+        <v>227.025172989292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>38169</v>
+        <v>37803</v>
       </c>
       <c r="B32" t="n">
-        <v>0.599553566124587</v>
+        <v>0.980664690941401</v>
       </c>
       <c r="C32" t="n">
-        <v>91.1307827488562</v>
+        <v>222.635571105463</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>38200</v>
+        <v>37834</v>
       </c>
       <c r="B33" t="n">
-        <v>0.602591123765007</v>
+        <v>1.03823349094804</v>
       </c>
       <c r="C33" t="n">
-        <v>91.5924846234785</v>
+        <v>231.147706198036</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>38231</v>
+        <v>37865</v>
       </c>
       <c r="B34" t="n">
-        <v>0.600822848270253</v>
+        <v>1.00889133330246</v>
       </c>
       <c r="C34" t="n">
-        <v>91.3237107572932</v>
+        <v>233.202917495941</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38261</v>
+        <v>37895</v>
       </c>
       <c r="B35" t="n">
-        <v>0.603621355738978</v>
+        <v>0.996477070794469</v>
       </c>
       <c r="C35" t="n">
-        <v>91.74907754779</v>
+        <v>232.381360127079</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>38292</v>
+        <v>37926</v>
       </c>
       <c r="B36" t="n">
-        <v>0.613418682194466</v>
+        <v>1.01037537453507</v>
       </c>
       <c r="C36" t="n">
-        <v>93.23824895662</v>
+        <v>234.792403773366</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>38322</v>
+        <v>37956</v>
       </c>
       <c r="B37" t="n">
-        <v>0.623044829364958</v>
+        <v>1.05819090463401</v>
       </c>
       <c r="C37" t="n">
-        <v>94.7014015022264</v>
+        <v>248.455186150132</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>38353</v>
+        <v>37987</v>
       </c>
       <c r="B38" t="n">
-        <v>0.524420322234082</v>
+        <v>0.990618531263492</v>
       </c>
       <c r="C38" t="n">
-        <v>79.7107000188677</v>
+        <v>246.124311588841</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38384</v>
+        <v>38018</v>
       </c>
       <c r="B39" t="n">
-        <v>0.518244417796542</v>
+        <v>1.01684930869587</v>
       </c>
       <c r="C39" t="n">
-        <v>78.7719765463127</v>
+        <v>250.27133609236</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38412</v>
+        <v>38047</v>
       </c>
       <c r="B40" t="n">
-        <v>0.517058231458478</v>
+        <v>0.975111386537136</v>
       </c>
       <c r="C40" t="n">
-        <v>78.5916789122372</v>
+        <v>244.042429547522</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>38443</v>
+        <v>38078</v>
       </c>
       <c r="B41" t="n">
-        <v>0.50850012875123</v>
+        <v>0.967977097750988</v>
       </c>
       <c r="C41" t="n">
-        <v>77.2908667035837</v>
+        <v>236.227482681511</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>38473</v>
+        <v>38108</v>
       </c>
       <c r="B42" t="n">
-        <v>0.501652311969076</v>
+        <v>1.01820342452258</v>
       </c>
       <c r="C42" t="n">
-        <v>76.2500140780006</v>
+        <v>240.527631832663</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>38504</v>
+        <v>38139</v>
       </c>
       <c r="B43" t="n">
-        <v>0.488722944681462</v>
+        <v>1.01395621150517</v>
       </c>
       <c r="C43" t="n">
-        <v>74.2847795636206</v>
+        <v>243.884486335358</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>38534</v>
+        <v>38169</v>
       </c>
       <c r="B44" t="n">
-        <v>0.481911025421709</v>
+        <v>1.01205306387729</v>
       </c>
       <c r="C44" t="n">
-        <v>73.249383280056</v>
+        <v>246.824041627838</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>38565</v>
+        <v>38200</v>
       </c>
       <c r="B45" t="n">
-        <v>0.489845008547519</v>
+        <v>1.00661403004341</v>
       </c>
       <c r="C45" t="n">
-        <v>74.4553307273289</v>
+        <v>248.456543254601</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>38596</v>
+        <v>38231</v>
       </c>
       <c r="B46" t="n">
-        <v>0.490622904831897</v>
+        <v>0.996191989172324</v>
       </c>
       <c r="C46" t="n">
-        <v>74.5735691989153</v>
+        <v>247.51041804768</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>38626</v>
+        <v>38261</v>
       </c>
       <c r="B47" t="n">
-        <v>0.492170578150931</v>
+        <v>1.00611754304193</v>
       </c>
       <c r="C47" t="n">
-        <v>74.8088120345384</v>
+        <v>249.024573683413</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>38657</v>
+        <v>38292</v>
       </c>
       <c r="B48" t="n">
-        <v>0.483013549612722</v>
+        <v>1.02113319735484</v>
       </c>
       <c r="C48" t="n">
-        <v>73.4169644574578</v>
+        <v>254.287259145269</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>38687</v>
+        <v>38322</v>
       </c>
       <c r="B49" t="n">
-        <v>0.488403729480349</v>
+        <v>1.02044831815141</v>
       </c>
       <c r="C49" t="n">
-        <v>74.2362595767731</v>
+        <v>259.48700592212</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>38718</v>
+        <v>38353</v>
       </c>
       <c r="B50" t="n">
-        <v>0.514059661967518</v>
+        <v>0.970586049957009</v>
       </c>
       <c r="C50" t="n">
-        <v>78.1359031479392</v>
+        <v>251.854468093122</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>38749</v>
+        <v>38384</v>
       </c>
       <c r="B51" t="n">
-        <v>0.515304501578884</v>
+        <v>0.986091181644734</v>
       </c>
       <c r="C51" t="n">
-        <v>78.3251159465785</v>
+        <v>248.351470044452</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>38777</v>
+        <v>38412</v>
       </c>
       <c r="B52" t="n">
-        <v>0.513304156347512</v>
+        <v>0.996895324864534</v>
       </c>
       <c r="C52" t="n">
-        <v>78.0210680065734</v>
+        <v>247.580419410549</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>38808</v>
+        <v>38443</v>
       </c>
       <c r="B53" t="n">
-        <v>0.514896044917751</v>
+        <v>0.979388025057548</v>
       </c>
       <c r="C53" t="n">
-        <v>78.2630314601353</v>
+        <v>242.477298009417</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>38838</v>
+        <v>38473</v>
       </c>
       <c r="B54" t="n">
-        <v>0.519158535061789</v>
+        <v>0.982474322765305</v>
       </c>
       <c r="C54" t="n">
-        <v>78.9109202981523</v>
+        <v>238.227719147763</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>38869</v>
+        <v>38504</v>
       </c>
       <c r="B55" t="n">
-        <v>0.51441198197473</v>
+        <v>0.968293632090653</v>
       </c>
       <c r="C55" t="n">
-        <v>78.1894549902589</v>
+        <v>230.674383438259</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>38899</v>
+        <v>38534</v>
       </c>
       <c r="B56" t="n">
-        <v>0.513253335903985</v>
+        <v>0.982741798939942</v>
       </c>
       <c r="C56" t="n">
-        <v>78.013343414377</v>
+        <v>226.693358549477</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>38930</v>
+        <v>38565</v>
       </c>
       <c r="B57" t="n">
-        <v>0.51544888644939</v>
+        <v>1.0194335372738</v>
       </c>
       <c r="C57" t="n">
-        <v>78.3470621195474</v>
+        <v>231.098812382571</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>38961</v>
+        <v>38596</v>
       </c>
       <c r="B58" t="n">
-        <v>0.513190006624812</v>
+        <v>1.00184313995889</v>
       </c>
       <c r="C58" t="n">
-        <v>78.0037175075222</v>
+        <v>231.524759838125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>38991</v>
+        <v>38626</v>
       </c>
       <c r="B59" t="n">
-        <v>0.509280629415128</v>
+        <v>1.00469883319236</v>
       </c>
       <c r="C59" t="n">
-        <v>77.4095010349526</v>
+        <v>232.612656064506</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>39022</v>
+        <v>38657</v>
       </c>
       <c r="B60" t="n">
-        <v>0.510842996496798</v>
+        <v>0.976564193521121</v>
       </c>
       <c r="C60" t="n">
-        <v>77.6469772891828</v>
+        <v>227.161190872441</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>39052</v>
+        <v>38687</v>
       </c>
       <c r="B61" t="n">
-        <v>0.513112866522565</v>
+        <v>1.01452485407246</v>
       </c>
       <c r="C61" t="n">
-        <v>77.9919923868719</v>
+        <v>230.460674020789</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>39083</v>
+        <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>0.477579036027537</v>
+        <v>1.01702955001494</v>
       </c>
       <c r="C62" t="n">
-        <v>72.5909307135865</v>
+        <v>234.385315595503</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>39114</v>
+        <v>38749</v>
       </c>
       <c r="B63" t="n">
-        <v>0.48186087310651</v>
+        <v>1.00261049834079</v>
       </c>
       <c r="C63" t="n">
-        <v>73.2417602418506</v>
+        <v>234.997178072969</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>39142</v>
+        <v>38777</v>
       </c>
       <c r="B64" t="n">
-        <v>0.482048885555389</v>
+        <v>0.994993499000887</v>
       </c>
       <c r="C64" t="n">
-        <v>73.2703377078202</v>
+        <v>233.820664466158</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>39173</v>
+        <v>38808</v>
       </c>
       <c r="B65" t="n">
-        <v>0.486330403209715</v>
+        <v>1.00406525732978</v>
       </c>
       <c r="C65" t="n">
-        <v>73.9211186842621</v>
+        <v>234.771205636234</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>39203</v>
+        <v>38838</v>
       </c>
       <c r="B66" t="n">
-        <v>0.487952472278279</v>
+        <v>1.01007539671714</v>
       </c>
       <c r="C66" t="n">
-        <v>74.1676695051444</v>
+        <v>237.13661867078</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>39234</v>
+        <v>38869</v>
       </c>
       <c r="B67" t="n">
-        <v>0.485774104065107</v>
+        <v>0.988678327818312</v>
       </c>
       <c r="C67" t="n">
-        <v>73.8365624755178</v>
+        <v>234.451835611916</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>39264</v>
+        <v>38899</v>
       </c>
       <c r="B68" t="n">
-        <v>0.494872686354032</v>
+        <v>0.99671734639302</v>
       </c>
       <c r="C68" t="n">
-        <v>75.2195263552161</v>
+        <v>233.682211448081</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>39295</v>
+        <v>38930</v>
       </c>
       <c r="B69" t="n">
-        <v>0.495442502149214</v>
+        <v>1.00562535821263</v>
       </c>
       <c r="C69" t="n">
-        <v>75.3061370642028</v>
+        <v>234.996757595396</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>39326</v>
+        <v>38961</v>
       </c>
       <c r="B70" t="n">
-        <v>0.498138092757242</v>
+        <v>0.995296659732862</v>
       </c>
       <c r="C70" t="n">
-        <v>75.7158607252059</v>
+        <v>233.891487882751</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>39356</v>
+        <v>38991</v>
       </c>
       <c r="B71" t="n">
-        <v>0.507178293534092</v>
+        <v>0.99072951556255</v>
       </c>
       <c r="C71" t="n">
-        <v>77.0899507474309</v>
+        <v>231.723200484282</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>39387</v>
+        <v>39022</v>
       </c>
       <c r="B72" t="n">
-        <v>0.509390606560386</v>
+        <v>1.00280817459089</v>
       </c>
       <c r="C72" t="n">
-        <v>77.4262173116927</v>
+        <v>232.373919688001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>39417</v>
+        <v>39052</v>
       </c>
       <c r="B73" t="n">
-        <v>0.506761073706299</v>
+        <v>1.00515256648716</v>
       </c>
       <c r="C73" t="n">
-        <v>77.0265342795231</v>
+        <v>233.571241759075</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>39448</v>
+        <v>39083</v>
       </c>
       <c r="B74" t="n">
-        <v>0.632655264765914</v>
+        <v>0.991995156974618</v>
       </c>
       <c r="C74" t="n">
-        <v>96.1621658944849</v>
+        <v>231.70154063355</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>39479</v>
+        <v>39114</v>
       </c>
       <c r="B75" t="n">
-        <v>0.63738309894572</v>
+        <v>1.01093614067633</v>
       </c>
       <c r="C75" t="n">
-        <v>96.8807859709153</v>
+        <v>234.235461276839</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>39508</v>
+        <v>39142</v>
       </c>
       <c r="B76" t="n">
-        <v>0.64758730514531</v>
+        <v>1.00076449887485</v>
       </c>
       <c r="C76" t="n">
-        <v>98.4318021783748</v>
+        <v>234.414534023436</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>39539</v>
+        <v>39173</v>
       </c>
       <c r="B77" t="n">
-        <v>0.65293903061947</v>
+        <v>1.01008259919232</v>
       </c>
       <c r="C77" t="n">
-        <v>99.2452523170665</v>
+        <v>236.778041814848</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>39569</v>
+        <v>39203</v>
       </c>
       <c r="B78" t="n">
-        <v>0.645121439872545</v>
+        <v>1.00293857366712</v>
       </c>
       <c r="C78" t="n">
-        <v>98.0569962475005</v>
+        <v>237.473831533478</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>39600</v>
+        <v>39234</v>
       </c>
       <c r="B79" t="n">
-        <v>0.627459909829804</v>
+        <v>0.995354456574052</v>
       </c>
       <c r="C79" t="n">
-        <v>95.372483723055</v>
+        <v>236.370636536563</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>39630</v>
+        <v>39264</v>
       </c>
       <c r="B80" t="n">
-        <v>0.62987287364354</v>
+        <v>1.02341877048124</v>
       </c>
       <c r="C80" t="n">
-        <v>95.7392487520945</v>
+        <v>241.906146222117</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>39661</v>
+        <v>39295</v>
       </c>
       <c r="B81" t="n">
-        <v>0.616078093799211</v>
+        <v>1.00358334439071</v>
       </c>
       <c r="C81" t="n">
-        <v>93.6424734911487</v>
+        <v>242.772979254262</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>39692</v>
+        <v>39326</v>
       </c>
       <c r="B82" t="n">
-        <v>0.606793476020817</v>
+        <v>1.00685839279595</v>
       </c>
       <c r="C82" t="n">
-        <v>92.231232638829</v>
+        <v>244.438011706231</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>39722</v>
+        <v>39356</v>
       </c>
       <c r="B83" t="n">
-        <v>0.593004536965001</v>
+        <v>1.02210790235307</v>
       </c>
       <c r="C83" t="n">
-        <v>90.135345164495</v>
+        <v>249.84202340041</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>39753</v>
+        <v>39387</v>
       </c>
       <c r="B84" t="n">
-        <v>0.584181867224405</v>
+        <v>1.00488928256125</v>
       </c>
       <c r="C84" t="n">
-        <v>88.7943193665964</v>
+        <v>251.063571648489</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>39783</v>
+        <v>39417</v>
       </c>
       <c r="B85" t="n">
-        <v>0.605464764927788</v>
+        <v>0.993901413727655</v>
       </c>
       <c r="C85" t="n">
-        <v>92.0292715651296</v>
+        <v>249.532438796947</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>39814</v>
+        <v>39448</v>
       </c>
       <c r="B86" t="n">
-        <v>0.520043107460051</v>
+        <v>1.00382833346072</v>
       </c>
       <c r="C86" t="n">
-        <v>79.0453732971942</v>
+        <v>250.487732181929</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>39845</v>
+        <v>39479</v>
       </c>
       <c r="B87" t="n">
-        <v>0.512655521351256</v>
+        <v>1.00968891923557</v>
       </c>
       <c r="C87" t="n">
-        <v>77.9224769577216</v>
+        <v>252.91468758854</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>39873</v>
+        <v>39508</v>
       </c>
       <c r="B88" t="n">
-        <v>0.529845544479948</v>
+        <v>1.02191553347527</v>
       </c>
       <c r="C88" t="n">
-        <v>80.5353215002276</v>
+        <v>258.457447890776</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>39904</v>
+        <v>39539</v>
       </c>
       <c r="B89" t="n">
-        <v>0.543428357254994</v>
+        <v>1.01138709936395</v>
       </c>
       <c r="C89" t="n">
-        <v>82.599878247212</v>
+        <v>261.400528531261</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>39934</v>
+        <v>39569</v>
       </c>
       <c r="B90" t="n">
-        <v>0.559897899292257</v>
+        <v>0.985631547031933</v>
       </c>
       <c r="C90" t="n">
-        <v>85.1032112972885</v>
+        <v>257.644607331231</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>39965</v>
+        <v>39600</v>
       </c>
       <c r="B91" t="n">
-        <v>0.572346062932891</v>
+        <v>0.964872655076253</v>
       </c>
       <c r="C91" t="n">
-        <v>86.9953039483081</v>
+        <v>248.594236341764</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>39995</v>
+        <v>39630</v>
       </c>
       <c r="B92" t="n">
-        <v>0.577158178718536</v>
+        <v>1.00462944585515</v>
       </c>
       <c r="C92" t="n">
-        <v>87.7267346377435</v>
+        <v>249.745089898811</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>40026</v>
+        <v>39661</v>
       </c>
       <c r="B93" t="n">
-        <v>0.583339212244056</v>
+        <v>0.97403120782583</v>
       </c>
       <c r="C93" t="n">
-        <v>88.6662377200427</v>
+        <v>243.25951156271</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>40057</v>
+        <v>39692</v>
       </c>
       <c r="B94" t="n">
-        <v>0.587263940025703</v>
+        <v>0.984394199359535</v>
       </c>
       <c r="C94" t="n">
-        <v>89.2627874447479</v>
+        <v>239.463252121365</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>40087</v>
+        <v>39722</v>
       </c>
       <c r="B95" t="n">
-        <v>0.589657347695603</v>
+        <v>0.975175853909033</v>
       </c>
       <c r="C95" t="n">
-        <v>89.6265799842618</v>
+        <v>233.518781367286</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>40118</v>
+        <v>39753</v>
       </c>
       <c r="B96" t="n">
-        <v>0.587768570002432</v>
+        <v>0.981199597904198</v>
       </c>
       <c r="C96" t="n">
-        <v>89.3394900571185</v>
+        <v>229.12853438066</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>40148</v>
+        <v>39783</v>
       </c>
       <c r="B97" t="n">
-        <v>0.579110726397929</v>
+        <v>1.04548730249927</v>
       </c>
       <c r="C97" t="n">
-        <v>88.0235174582138</v>
+        <v>239.550973335248</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>40179</v>
+        <v>39814</v>
       </c>
       <c r="B98" t="n">
-        <v>0.464560635999578</v>
+        <v>0.996583804169853</v>
       </c>
       <c r="C98" t="n">
-        <v>70.6121634245281</v>
+        <v>238.732620299032</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>40210</v>
+        <v>39845</v>
       </c>
       <c r="B99" t="n">
-        <v>0.457233961404938</v>
+        <v>0.985194444099093</v>
       </c>
       <c r="C99" t="n">
-        <v>69.4985254971091</v>
+        <v>235.198051143825</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>40238</v>
+        <v>39873</v>
       </c>
       <c r="B100" t="n">
-        <v>0.455326060762471</v>
+        <v>1.04155125614742</v>
       </c>
       <c r="C100" t="n">
-        <v>69.208528925028</v>
+        <v>244.970825612276</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>40269</v>
+        <v>39904</v>
       </c>
       <c r="B101" t="n">
-        <v>0.455673580434703</v>
+        <v>1.03039206778989</v>
       </c>
       <c r="C101" t="n">
-        <v>69.261351127314</v>
+        <v>252.415995550829</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>40299</v>
+        <v>39934</v>
       </c>
       <c r="B102" t="n">
-        <v>0.442309017943618</v>
+        <v>1.03661315954606</v>
       </c>
       <c r="C102" t="n">
-        <v>67.2299679286768</v>
+        <v>261.65774266791</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>40330</v>
+        <v>39965</v>
       </c>
       <c r="B103" t="n">
-        <v>0.437412700341973</v>
+        <v>1.02723204555363</v>
       </c>
       <c r="C103" t="n">
-        <v>66.4857387541109</v>
+        <v>268.783218235703</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>40360</v>
+        <v>39995</v>
       </c>
       <c r="B104" t="n">
-        <v>0.44505223770814</v>
+        <v>1.01048005098149</v>
       </c>
       <c r="C104" t="n">
-        <v>67.6469311134827</v>
+        <v>271.600080065782</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>40391</v>
+        <v>40026</v>
       </c>
       <c r="B105" t="n">
-        <v>0.446020962205516</v>
+        <v>1.01343949185559</v>
       </c>
       <c r="C105" t="n">
-        <v>67.7941750408009</v>
+        <v>275.250247129803</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>40422</v>
+        <v>40057</v>
       </c>
       <c r="B106" t="n">
-        <v>0.45112200090096</v>
+        <v>1.00846533037259</v>
       </c>
       <c r="C106" t="n">
-        <v>68.5695213574825</v>
+        <v>277.580331406895</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>40452</v>
+        <v>40087</v>
       </c>
       <c r="B107" t="n">
-        <v>0.462108511293802</v>
+        <v>1.0042863785165</v>
       </c>
       <c r="C107" t="n">
-        <v>70.2394460286837</v>
+        <v>278.77014577604</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>40483</v>
+        <v>40118</v>
       </c>
       <c r="B108" t="n">
-        <v>0.457953060162063</v>
+        <v>0.995336675725995</v>
       </c>
       <c r="C108" t="n">
-        <v>69.6078268778582</v>
+        <v>277.470150188375</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>40513</v>
+        <v>40148</v>
       </c>
       <c r="B109" t="n">
-        <v>0.451991114662638</v>
+        <v>0.982091660699435</v>
       </c>
       <c r="C109" t="n">
-        <v>68.7016246788112</v>
+        <v>272.501120593023</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>40544</v>
+        <v>40179</v>
       </c>
       <c r="B110" t="n">
-        <v>0.449220312055352</v>
+        <v>0.993932942115089</v>
       </c>
       <c r="C110" t="n">
-        <v>68.2804689644408</v>
+        <v>270.847840520682</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>40575</v>
+        <v>40210</v>
       </c>
       <c r="B111" t="n">
-        <v>0.454618291342233</v>
+        <v>0.984634659864969</v>
       </c>
       <c r="C111" t="n">
-        <v>69.1009495777999</v>
+        <v>266.686171326243</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>40603</v>
+        <v>40238</v>
       </c>
       <c r="B112" t="n">
-        <v>0.459045371045449</v>
+        <v>0.994353862589343</v>
       </c>
       <c r="C112" t="n">
-        <v>69.7738556556563</v>
+        <v>265.180424557413</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>40634</v>
+        <v>40269</v>
       </c>
       <c r="B113" t="n">
-        <v>0.467466171349647</v>
+        <v>0.999614885937024</v>
       </c>
       <c r="C113" t="n">
-        <v>71.0537982103369</v>
+        <v>265.07829984669</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>40664</v>
+        <v>40299</v>
       </c>
       <c r="B114" t="n">
-        <v>0.466293607065765</v>
+        <v>0.967350366327199</v>
       </c>
       <c r="C114" t="n">
-        <v>70.8755710976133</v>
+        <v>256.423590462086</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>40695</v>
+        <v>40330</v>
       </c>
       <c r="B115" t="n">
-        <v>0.466043355230025</v>
+        <v>0.98719392536303</v>
       </c>
       <c r="C115" t="n">
-        <v>70.8375333859493</v>
+        <v>253.139810823949</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>40725</v>
+        <v>40360</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4668733897184</v>
+        <v>1.01857283875674</v>
       </c>
       <c r="C116" t="n">
-        <v>70.9636967463362</v>
+        <v>257.841335713294</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>40756</v>
+        <v>40391</v>
       </c>
       <c r="B117" t="n">
-        <v>0.467001922097211</v>
+        <v>1.00268363589327</v>
       </c>
       <c r="C117" t="n">
-        <v>70.983233376508</v>
+        <v>258.533287976583</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>40787</v>
+        <v>40422</v>
       </c>
       <c r="B118" t="n">
-        <v>0.456240715525194</v>
+        <v>1.01532715287306</v>
       </c>
       <c r="C118" t="n">
-        <v>69.3475543752654</v>
+        <v>262.495867204174</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>40817</v>
+        <v>40452</v>
       </c>
       <c r="B119" t="n">
-        <v>0.451977003990546</v>
+        <v>1.02671215684535</v>
       </c>
       <c r="C119" t="n">
-        <v>68.6994798886449</v>
+        <v>269.507697980188</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>40848</v>
+        <v>40483</v>
       </c>
       <c r="B120" t="n">
-        <v>0.45095451583227</v>
+        <v>0.991194922597597</v>
       </c>
       <c r="C120" t="n">
-        <v>68.5440640067622</v>
+        <v>267.134661838929</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>40878</v>
+        <v>40513</v>
       </c>
       <c r="B121" t="n">
-        <v>0.444839251469417</v>
+        <v>0.985286922707607</v>
       </c>
       <c r="C121" t="n">
-        <v>67.6145576880771</v>
+        <v>263.204288911815</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>40909</v>
+        <v>40544</v>
       </c>
       <c r="B122" t="n">
-        <v>0.299476856235502</v>
+        <v>0.989815665510774</v>
       </c>
       <c r="C122" t="n">
-        <v>45.5198031767469</v>
+        <v>260.523728394539</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>40940</v>
+        <v>40575</v>
       </c>
       <c r="B123" t="n">
-        <v>0.306518858946578</v>
+        <v>1.01570725046433</v>
       </c>
       <c r="C123" t="n">
-        <v>46.5901716232696</v>
+        <v>264.615839848332</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>40969</v>
+        <v>40603</v>
       </c>
       <c r="B124" t="n">
-        <v>0.303759361693022</v>
+        <v>1.01198362742682</v>
       </c>
       <c r="C124" t="n">
-        <v>46.1707342970348</v>
+        <v>267.786897484309</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>41000</v>
+        <v>40634</v>
       </c>
       <c r="B125" t="n">
-        <v>0.303811879368</v>
+        <v>1.02118646495182</v>
       </c>
       <c r="C125" t="n">
-        <v>46.178716864564</v>
+        <v>273.460355202418</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>41030</v>
+        <v>40664</v>
       </c>
       <c r="B126" t="n">
-        <v>0.29921947934247</v>
+        <v>0.997680738996164</v>
       </c>
       <c r="C126" t="n">
-        <v>45.4806824725285</v>
+        <v>272.826129264502</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>41061</v>
+        <v>40695</v>
       </c>
       <c r="B127" t="n">
-        <v>0.297019577883945</v>
+        <v>0.997607432027188</v>
       </c>
       <c r="C127" t="n">
-        <v>45.1463024384282</v>
+        <v>272.173374205477</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>41091</v>
+        <v>40725</v>
       </c>
       <c r="B128" t="n">
-        <v>0.29815130895089</v>
+        <v>1.00720208742592</v>
       </c>
       <c r="C128" t="n">
-        <v>45.318322994754</v>
+        <v>274.133590641513</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>41122</v>
+        <v>40756</v>
       </c>
       <c r="B129" t="n">
-        <v>0.300391716836301</v>
+        <v>1.00493819074741</v>
       </c>
       <c r="C129" t="n">
-        <v>45.6588599139053</v>
+        <v>275.487314602374</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>41153</v>
+        <v>40787</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305734595406335</v>
+        <v>0.97528964396476</v>
       </c>
       <c r="C130" t="n">
-        <v>46.4709653432275</v>
+        <v>268.679924975357</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>41183</v>
+        <v>40817</v>
       </c>
       <c r="B131" t="n">
-        <v>0.308917295602096</v>
+        <v>0.990729362195385</v>
       </c>
       <c r="C131" t="n">
-        <v>46.9547285571959</v>
+        <v>266.189090705539</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>41214</v>
+        <v>40848</v>
       </c>
       <c r="B132" t="n">
-        <v>0.308450808962281</v>
+        <v>0.998252165307277</v>
       </c>
       <c r="C132" t="n">
-        <v>46.883823645558</v>
+        <v>265.72383617798</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>41244</v>
+        <v>40878</v>
       </c>
       <c r="B133" t="n">
-        <v>0.311874740744216</v>
+        <v>0.98330797789132</v>
       </c>
       <c r="C133" t="n">
-        <v>47.4042535137069</v>
+        <v>261.288368029694</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>41275</v>
+        <v>40909</v>
       </c>
       <c r="B134" t="n">
-        <v>0.383046883636801</v>
+        <v>1.00090960395358</v>
       </c>
       <c r="C134" t="n">
-        <v>58.2222578725818</v>
+        <v>261.526036962277</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>41306</v>
+        <v>40940</v>
       </c>
       <c r="B135" t="n">
-        <v>0.385647307376204</v>
+        <v>1.02547159347942</v>
       </c>
       <c r="C135" t="n">
-        <v>58.6175163853152</v>
+        <v>268.187521860063</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>41334</v>
+        <v>40969</v>
       </c>
       <c r="B136" t="n">
-        <v>0.384353228251574</v>
+        <v>0.991295942649868</v>
       </c>
       <c r="C136" t="n">
-        <v>58.4208192922953</v>
+        <v>265.853202289204</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>41365</v>
+        <v>41000</v>
       </c>
       <c r="B137" t="n">
-        <v>0.387704908761561</v>
+        <v>1.00260925853368</v>
       </c>
       <c r="C137" t="n">
-        <v>58.9302671309154</v>
+        <v>266.546882025982</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>41395</v>
+        <v>41030</v>
       </c>
       <c r="B138" t="n">
-        <v>0.388941047654409</v>
+        <v>0.984295414339539</v>
       </c>
       <c r="C138" t="n">
-        <v>59.1181574400661</v>
+        <v>262.360873684677</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>41426</v>
+        <v>41061</v>
       </c>
       <c r="B139" t="n">
-        <v>0.38864296329462</v>
+        <v>0.992535865152878</v>
       </c>
       <c r="C139" t="n">
-        <v>59.0728492931922</v>
+        <v>260.402576744885</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>41456</v>
+        <v>41091</v>
       </c>
       <c r="B140" t="n">
-        <v>0.39045482163255</v>
+        <v>1.00697553792436</v>
       </c>
       <c r="C140" t="n">
-        <v>59.3482476527298</v>
+        <v>262.21902479457</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>41487</v>
+        <v>41122</v>
       </c>
       <c r="B141" t="n">
-        <v>0.393630629543874</v>
+        <v>1.01089756612651</v>
       </c>
       <c r="C141" t="n">
-        <v>59.8309632550899</v>
+        <v>265.076573956898</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>41518</v>
+        <v>41153</v>
       </c>
       <c r="B142" t="n">
-        <v>0.398331530058045</v>
+        <v>1.02371738997108</v>
       </c>
       <c r="C142" t="n">
-        <v>60.5454894754074</v>
+        <v>271.363498433631</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>41548</v>
+        <v>41183</v>
       </c>
       <c r="B143" t="n">
-        <v>0.406028285324723</v>
+        <v>1.01689017106164</v>
       </c>
       <c r="C143" t="n">
-        <v>61.7153788259329</v>
+        <v>275.946874342059</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>41579</v>
+        <v>41214</v>
       </c>
       <c r="B144" t="n">
-        <v>0.408095674427867</v>
+        <v>1.00115845634023</v>
       </c>
       <c r="C144" t="n">
-        <v>62.0296172824462</v>
+        <v>276.266546748209</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>41609</v>
+        <v>41244</v>
       </c>
       <c r="B145" t="n">
-        <v>0.417726693857139</v>
+        <v>1.01528969547361</v>
       </c>
       <c r="C145" t="n">
-        <v>63.4935104003408</v>
+        <v>280.490578117535</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>41640</v>
+        <v>41275</v>
       </c>
       <c r="B146" t="n">
-        <v>0.489666748539806</v>
+        <v>1.01428122465266</v>
       </c>
       <c r="C146" t="n">
-        <v>74.4282356103058</v>
+        <v>284.496327076586</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>41671</v>
+        <v>41306</v>
       </c>
       <c r="B147" t="n">
-        <v>0.511553618223596</v>
+        <v>1.01188693143593</v>
       </c>
       <c r="C147" t="n">
-        <v>77.7549901805414</v>
+        <v>287.878115410319</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>41699</v>
+        <v>41334</v>
       </c>
       <c r="B148" t="n">
-        <v>0.512114028870384</v>
+        <v>1.00011082635621</v>
       </c>
       <c r="C148" t="n">
-        <v>77.8401713282955</v>
+        <v>287.910019892882</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>41730</v>
+        <v>41365</v>
       </c>
       <c r="B149" t="n">
-        <v>0.51246291439812</v>
+        <v>1.01359190191084</v>
       </c>
       <c r="C149" t="n">
-        <v>77.8932011375214</v>
+        <v>291.823264642413</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>41760</v>
+        <v>41395</v>
       </c>
       <c r="B150" t="n">
-        <v>0.510759000363869</v>
+        <v>1.00336706810451</v>
       </c>
       <c r="C150" t="n">
-        <v>77.6342100674129</v>
+        <v>292.805853448943</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>41791</v>
+        <v>41426</v>
       </c>
       <c r="B151" t="n">
-        <v>0.508205917489846</v>
+        <v>1.00144809107754</v>
       </c>
       <c r="C151" t="n">
-        <v>77.2461472588862</v>
+        <v>293.229862992773</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>41821</v>
+        <v>41456</v>
       </c>
       <c r="B152" t="n">
-        <v>0.506837221814688</v>
+        <v>0.976061551027452</v>
       </c>
       <c r="C152" t="n">
-        <v>77.038108619356</v>
+        <v>286.210394880294</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>41852</v>
+        <v>41487</v>
       </c>
       <c r="B153" t="n">
-        <v>0.504730959082861</v>
+        <v>1.01118484425124</v>
       </c>
       <c r="C153" t="n">
-        <v>76.7179614594168</v>
+        <v>289.411613570117</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>41883</v>
+        <v>41518</v>
       </c>
       <c r="B154" t="n">
-        <v>0.498084909689622</v>
+        <v>1.0190557818532</v>
       </c>
       <c r="C154" t="n">
-        <v>75.7077770195038</v>
+        <v>294.926578144092</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>41913</v>
+        <v>41548</v>
       </c>
       <c r="B155" t="n">
-        <v>0.49098676112729</v>
+        <v>1.0263840309062</v>
       </c>
       <c r="C155" t="n">
-        <v>74.6288745308835</v>
+        <v>302.707930096904</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>41944</v>
+        <v>41579</v>
       </c>
       <c r="B156" t="n">
-        <v>0.485186270032149</v>
+        <v>1.01190039255052</v>
       </c>
       <c r="C156" t="n">
-        <v>73.7472130352398</v>
+        <v>306.310273293212</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>41974</v>
+        <v>41609</v>
       </c>
       <c r="B157" t="n">
-        <v>0.477124622090992</v>
+        <v>1.03767571112162</v>
       </c>
       <c r="C157" t="n">
-        <v>72.5218608254745</v>
+        <v>317.850730663391</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>42005</v>
+        <v>41640</v>
       </c>
       <c r="B158" t="n">
-        <v>0.459986476833743</v>
+        <v>1.07701142699798</v>
       </c>
       <c r="C158" t="n">
-        <v>69.9169016018109</v>
+        <v>342.328869004128</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>42036</v>
+        <v>41671</v>
       </c>
       <c r="B159" t="n">
-        <v>0.457403198733085</v>
+        <v>1.0682868328642</v>
       </c>
       <c r="C159" t="n">
-        <v>69.5242491872942</v>
+        <v>365.705423266405</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>42064</v>
+        <v>41699</v>
       </c>
       <c r="B160" t="n">
-        <v>0.449517561730361</v>
+        <v>0.998276504605162</v>
       </c>
       <c r="C160" t="n">
-        <v>68.3256502411205</v>
+        <v>365.075131653538</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>42095</v>
+        <v>41730</v>
       </c>
       <c r="B161" t="n">
-        <v>0.451107198106097</v>
+        <v>0.997336701501686</v>
       </c>
       <c r="C161" t="n">
-        <v>68.5672713662241</v>
+        <v>364.102827603633</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>42125</v>
+        <v>41760</v>
       </c>
       <c r="B162" t="n">
-        <v>0.455291658623072</v>
+        <v>0.993829541509877</v>
       </c>
       <c r="C162" t="n">
-        <v>69.2032998778356</v>
+        <v>361.856146219768</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>42156</v>
+        <v>41791</v>
       </c>
       <c r="B163" t="n">
-        <v>0.45609932965295</v>
+        <v>0.995492638303066</v>
       </c>
       <c r="C163" t="n">
-        <v>69.3260640432331</v>
+        <v>360.225129686497</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>42186</v>
+        <v>41821</v>
       </c>
       <c r="B164" t="n">
-        <v>0.450902719891869</v>
+        <v>0.996826090827523</v>
       </c>
       <c r="C164" t="n">
-        <v>68.5361911412524</v>
+        <v>359.081807843228</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>42217</v>
+        <v>41852</v>
       </c>
       <c r="B165" t="n">
-        <v>0.446299847658045</v>
+        <v>0.997332883464909</v>
       </c>
       <c r="C165" t="n">
-        <v>67.8365649972989</v>
+        <v>358.12409481608</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>42248</v>
+        <v>41883</v>
       </c>
       <c r="B166" t="n">
-        <v>0.442505210366406</v>
+        <v>0.985019201643763</v>
       </c>
       <c r="C166" t="n">
-        <v>67.259788732135</v>
+        <v>352.75910996513</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>42278</v>
+        <v>41913</v>
       </c>
       <c r="B167" t="n">
-        <v>0.446976932819735</v>
+        <v>0.982776926868866</v>
       </c>
       <c r="C167" t="n">
-        <v>67.9394804067948</v>
+        <v>346.683514016527</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>42309</v>
+        <v>41944</v>
       </c>
       <c r="B168" t="n">
-        <v>0.438155424579892</v>
+        <v>0.983805251299843</v>
       </c>
       <c r="C168" t="n">
-        <v>66.5986311543774</v>
+        <v>341.069061628542</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>42339</v>
+        <v>41974</v>
       </c>
       <c r="B169" t="n">
-        <v>0.483407110821004</v>
+        <v>0.980101365111757</v>
       </c>
       <c r="C169" t="n">
-        <v>73.4767848688384</v>
+        <v>334.28225289952</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>42370</v>
+        <v>42005</v>
       </c>
       <c r="B170" t="n">
-        <v>0.495734835481486</v>
+        <v>0.969590581738963</v>
       </c>
       <c r="C170" t="n">
-        <v>75.3505710679328</v>
+        <v>324.116924053856</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>42401</v>
+        <v>42036</v>
       </c>
       <c r="B171" t="n">
-        <v>0.512590393645912</v>
+        <v>0.99209115909909</v>
       </c>
       <c r="C171" t="n">
-        <v>77.9125776941661</v>
+        <v>321.553534868222</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>42430</v>
+        <v>42064</v>
       </c>
       <c r="B172" t="n">
-        <v>0.511689388539418</v>
+        <v>0.979879644727102</v>
       </c>
       <c r="C172" t="n">
-        <v>77.7756269607291</v>
+        <v>315.083763507417</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>42461</v>
+        <v>42095</v>
       </c>
       <c r="B173" t="n">
-        <v>0.484953508903266</v>
+        <v>1.0018361697343</v>
       </c>
       <c r="C173" t="n">
-        <v>73.7118338713633</v>
+        <v>315.66231077774</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>42491</v>
+        <v>42125</v>
       </c>
       <c r="B174" t="n">
-        <v>0.463588101309541</v>
+        <v>1.00886076367886</v>
       </c>
       <c r="C174" t="n">
-        <v>70.4643403565639</v>
+        <v>318.459319915863</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>42522</v>
+        <v>42156</v>
       </c>
       <c r="B175" t="n">
-        <v>0.455959314276782</v>
+        <v>1.00272768520034</v>
       </c>
       <c r="C175" t="n">
-        <v>69.3047820234971</v>
+        <v>319.327976689707</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>42552</v>
+        <v>42186</v>
       </c>
       <c r="B176" t="n">
-        <v>0.465545218120485</v>
+        <v>0.984279192426679</v>
       </c>
       <c r="C176" t="n">
-        <v>70.761817674671</v>
+        <v>314.30788301539</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>42583</v>
+        <v>42217</v>
       </c>
       <c r="B177" t="n">
-        <v>0.467286631750275</v>
+        <v>0.986736269742746</v>
       </c>
       <c r="C177" t="n">
-        <v>71.0265085982827</v>
+        <v>310.138988037345</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>42614</v>
+        <v>42248</v>
       </c>
       <c r="B178" t="n">
-        <v>0.468915239961328</v>
+        <v>0.992274026045167</v>
       </c>
       <c r="C178" t="n">
-        <v>71.2740533539979</v>
+        <v>307.742862293391</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>42644</v>
+        <v>42278</v>
       </c>
       <c r="B179" t="n">
-        <v>0.461164815215099</v>
+        <v>1.01178924961233</v>
       </c>
       <c r="C179" t="n">
-        <v>70.0960063642596</v>
+        <v>311.37091971338</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>42675</v>
+        <v>42309</v>
       </c>
       <c r="B180" t="n">
-        <v>0.453198734576916</v>
+        <v>0.975252509636903</v>
       </c>
       <c r="C180" t="n">
-        <v>68.8851801678773</v>
+        <v>303.665270878425</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>42705</v>
+        <v>42339</v>
       </c>
       <c r="B181" t="n">
-        <v>0.452907249189388</v>
+        <v>1.15104057429638</v>
       </c>
       <c r="C181" t="n">
-        <v>68.8408750498258</v>
+        <v>349.531047785767</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>42736</v>
+        <v>42370</v>
       </c>
       <c r="B182" t="n">
-        <v>0.457297895598727</v>
+        <v>1.13353544349516</v>
       </c>
       <c r="C182" t="n">
-        <v>69.5082433496141</v>
+        <v>396.205831267166</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>42767</v>
+        <v>42401</v>
       </c>
       <c r="B183" t="n">
-        <v>0.447527604379422</v>
+        <v>1.04728415289401</v>
       </c>
       <c r="C183" t="n">
-        <v>68.0231812353899</v>
+        <v>414.940088370303</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>42795</v>
+        <v>42430</v>
       </c>
       <c r="B184" t="n">
-        <v>0.440638495189398</v>
+        <v>0.988545069362001</v>
       </c>
       <c r="C184" t="n">
-        <v>66.9760522574284</v>
+        <v>410.186978439096</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>42826</v>
+        <v>42461</v>
       </c>
       <c r="B185" t="n">
-        <v>0.432825559274909</v>
+        <v>0.916912718521599</v>
       </c>
       <c r="C185" t="n">
-        <v>65.7885037118394</v>
+        <v>376.105657502752</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>42856</v>
+        <v>42491</v>
       </c>
       <c r="B186" t="n">
-        <v>0.440644197509638</v>
+        <v>0.938334379888772</v>
       </c>
       <c r="C186" t="n">
-        <v>66.9769189971767</v>
+        <v>352.912868905504</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>42887</v>
+        <v>42522</v>
       </c>
       <c r="B187" t="n">
-        <v>0.447003107673692</v>
+        <v>0.976865439489521</v>
       </c>
       <c r="C187" t="n">
-        <v>67.9434589252529</v>
+        <v>344.748384784883</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>42917</v>
+        <v>42552</v>
       </c>
       <c r="B188" t="n">
-        <v>0.465880012619738</v>
+        <v>1.03087541471254</v>
       </c>
       <c r="C188" t="n">
-        <v>70.8127056795145</v>
+        <v>355.392634136594</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>42948</v>
+        <v>42583</v>
       </c>
       <c r="B189" t="n">
-        <v>0.470538972386716</v>
+        <v>1.00537652980549</v>
       </c>
       <c r="C189" t="n">
-        <v>71.5208570013464</v>
+        <v>357.303413226681</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>42979</v>
+        <v>42614</v>
       </c>
       <c r="B190" t="n">
-        <v>0.463716752873154</v>
+        <v>1.00689439791435</v>
       </c>
       <c r="C190" t="n">
-        <v>70.4838951025554</v>
+        <v>359.766805133621</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>43009</v>
+        <v>42644</v>
       </c>
       <c r="B191" t="n">
-        <v>0.459816986090347</v>
+        <v>0.977581261236529</v>
       </c>
       <c r="C191" t="n">
-        <v>69.8911393930825</v>
+        <v>351.701287113562</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>43040</v>
+        <v>42675</v>
       </c>
       <c r="B192" t="n">
-        <v>0.456163466331163</v>
+        <v>0.943617611428633</v>
       </c>
       <c r="C192" t="n">
-        <v>69.3358126729115</v>
+        <v>331.871528482475</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>43070</v>
+        <v>42705</v>
       </c>
       <c r="B193" t="n">
-        <v>0.454177983855774</v>
+        <v>0.994262716372283</v>
       </c>
       <c r="C193" t="n">
-        <v>69.034023838119</v>
+        <v>329.967487395607</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>43101</v>
+        <v>42736</v>
       </c>
       <c r="B194" t="n">
-        <v>0.52443134542746</v>
+        <v>1.00742326529539</v>
       </c>
       <c r="C194" t="n">
-        <v>79.7123755192693</v>
+        <v>332.416923593399</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>43132</v>
+        <v>42767</v>
       </c>
       <c r="B195" t="n">
-        <v>0.533797850912456</v>
+        <v>0.972861222918058</v>
       </c>
       <c r="C195" t="n">
-        <v>81.1360631173376</v>
+        <v>323.395534805733</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>43160</v>
+        <v>42795</v>
       </c>
       <c r="B196" t="n">
-        <v>0.539118752010007</v>
+        <v>0.976471359644521</v>
       </c>
       <c r="C196" t="n">
-        <v>81.9448280206695</v>
+        <v>315.786477574721</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>43191</v>
+        <v>42826</v>
       </c>
       <c r="B197" t="n">
-        <v>0.519922634881949</v>
+        <v>0.972631854163256</v>
       </c>
       <c r="C197" t="n">
-        <v>79.027061738457</v>
+        <v>307.143987203184</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>43221</v>
+        <v>42856</v>
       </c>
       <c r="B198" t="n">
-        <v>0.559308564313717</v>
+        <v>1.02212625047706</v>
       </c>
       <c r="C198" t="n">
-        <v>85.013633716685</v>
+        <v>313.939931996565</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>43252</v>
+        <v>42887</v>
       </c>
       <c r="B199" t="n">
-        <v>0.585978037334201</v>
+        <v>1.01960321999318</v>
       </c>
       <c r="C199" t="n">
-        <v>89.0673331510258</v>
+        <v>320.094165548137</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>43282</v>
+        <v>42917</v>
       </c>
       <c r="B200" t="n">
-        <v>0.584389650125997</v>
+        <v>1.05964016550708</v>
       </c>
       <c r="C200" t="n">
-        <v>88.825901896555</v>
+        <v>339.184634559278</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>43313</v>
+        <v>42948</v>
       </c>
       <c r="B201" t="n">
-        <v>0.598017929004849</v>
+        <v>1.01303119876231</v>
       </c>
       <c r="C201" t="n">
-        <v>90.8973693882377</v>
+        <v>343.604616949342</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>43344</v>
+        <v>42979</v>
       </c>
       <c r="B202" t="n">
-        <v>0.671996523790858</v>
+        <v>0.978690138027816</v>
       </c>
       <c r="C202" t="n">
-        <v>102.141948072152</v>
+        <v>336.282449989146</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>43374</v>
+        <v>43009</v>
       </c>
       <c r="B203" t="n">
-        <v>0.630853678187614</v>
+        <v>0.990354996718749</v>
       </c>
       <c r="C203" t="n">
-        <v>95.8883288191231</v>
+        <v>333.039004655574</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>43405</v>
+        <v>43040</v>
       </c>
       <c r="B204" t="n">
-        <v>0.613165232622033</v>
+        <v>0.988689548043066</v>
       </c>
       <c r="C204" t="n">
-        <v>93.1997251962285</v>
+        <v>329.272182993631</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>43435</v>
+        <v>43070</v>
       </c>
       <c r="B205" t="n">
-        <v>0.618953770390747</v>
+        <v>0.990488624454013</v>
       </c>
       <c r="C205" t="n">
-        <v>94.0795698133559</v>
+        <v>326.140351604332</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>43466</v>
+        <v>43101</v>
       </c>
       <c r="B206" t="n">
-        <v>0.522048490004365</v>
+        <v>1.07647977259207</v>
       </c>
       <c r="C206" t="n">
-        <v>79.3501868973458</v>
+        <v>351.083491528129</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>43497</v>
+        <v>43132</v>
       </c>
       <c r="B207" t="n">
-        <v>0.52025811435437</v>
+        <v>1.02405231130836</v>
       </c>
       <c r="C207" t="n">
-        <v>79.0780538576691</v>
+        <v>359.527860961591</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>43525</v>
+        <v>43160</v>
       </c>
       <c r="B208" t="n">
-        <v>0.533045923354846</v>
+        <v>1.01743221126159</v>
       </c>
       <c r="C208" t="n">
-        <v>81.0217718333438</v>
+        <v>365.795226588301</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="B209" t="n">
-        <v>0.536581119178605</v>
+        <v>0.950536330773086</v>
       </c>
       <c r="C209" t="n">
-        <v>81.5591135835931</v>
+        <v>347.701652495553</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>43586</v>
+        <v>43221</v>
       </c>
       <c r="B210" t="n">
-        <v>0.535236440382725</v>
+        <v>1.12045253517432</v>
       </c>
       <c r="C210" t="n">
-        <v>81.3547254552622</v>
+        <v>389.583198022944</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>43617</v>
+        <v>43252</v>
       </c>
       <c r="B211" t="n">
-        <v>0.51836572439649</v>
+        <v>1.07473852975348</v>
       </c>
       <c r="C211" t="n">
-        <v>78.7904148744796</v>
+        <v>418.700073459837</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="B212" t="n">
-        <v>0.503255363917971</v>
+        <v>0.997870228146422</v>
       </c>
       <c r="C212" t="n">
-        <v>76.4936743398087</v>
+        <v>417.808337828291</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>43678</v>
+        <v>43313</v>
       </c>
       <c r="B213" t="n">
-        <v>0.562017920513815</v>
+        <v>1.04101841221297</v>
       </c>
       <c r="C213" t="n">
-        <v>85.4254497164737</v>
+        <v>434.946172455349</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>43709</v>
+        <v>43344</v>
       </c>
       <c r="B214" t="n">
-        <v>0.56671987393018</v>
+        <v>1.19156535696028</v>
       </c>
       <c r="C214" t="n">
-        <v>86.1401359755376</v>
+        <v>518.266791240264</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="B215" t="n">
-        <v>0.571787913821049</v>
+        <v>0.912728450353141</v>
       </c>
       <c r="C215" t="n">
-        <v>86.9104665487383</v>
+        <v>473.036845238222</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>43770</v>
+        <v>43405</v>
       </c>
       <c r="B216" t="n">
-        <v>0.563859245038106</v>
+        <v>0.957245851719716</v>
       </c>
       <c r="C216" t="n">
-        <v>85.7053268695327</v>
+        <v>452.812557814869</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>43800</v>
+        <v>43435</v>
       </c>
       <c r="B217" t="n">
-        <v>0.553122602278007</v>
+        <v>1.01064307878734</v>
       </c>
       <c r="C217" t="n">
-        <v>84.0733815120108</v>
+        <v>457.63187754359</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="B218" t="n">
-        <v>0.552065780036862</v>
+        <v>0.967219762984078</v>
       </c>
       <c r="C218" t="n">
-        <v>83.9127469273741</v>
+        <v>442.63059613167</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>43862</v>
+        <v>43497</v>
       </c>
       <c r="B219" t="n">
-        <v>0.547266614275717</v>
+        <v>0.995187706736918</v>
       </c>
       <c r="C219" t="n">
-        <v>83.1832846123025</v>
+        <v>440.500527895871</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>43891</v>
+        <v>43525</v>
       </c>
       <c r="B220" t="n">
-        <v>0.530816910740914</v>
+        <v>1.03584920686463</v>
       </c>
       <c r="C220" t="n">
-        <v>80.6829669696221</v>
+        <v>456.292122444391</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="B221" t="n">
-        <v>0.530518579982214</v>
+        <v>1.01008176948941</v>
       </c>
       <c r="C221" t="n">
-        <v>80.6376213706723</v>
+        <v>460.892354442707</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>43952</v>
+        <v>43586</v>
       </c>
       <c r="B222" t="n">
-        <v>0.537553189350486</v>
+        <v>1.00019841672171</v>
       </c>
       <c r="C222" t="n">
-        <v>81.706866045851</v>
+        <v>460.983803192738</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>43983</v>
+        <v>43617</v>
       </c>
       <c r="B223" t="n">
-        <v>0.550795616946781</v>
+        <v>0.955586691455005</v>
       </c>
       <c r="C223" t="n">
-        <v>83.7196850173833</v>
+        <v>440.509987307294</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="B224" t="n">
-        <v>0.558779877485267</v>
+        <v>0.959922750801451</v>
       </c>
       <c r="C224" t="n">
-        <v>84.9332745173943</v>
+        <v>422.85555877153</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>44044</v>
+        <v>43678</v>
       </c>
       <c r="B225" t="n">
-        <v>0.56227156096375</v>
+        <v>1.17280142639294</v>
       </c>
       <c r="C225" t="n">
-        <v>85.4640024898126</v>
+        <v>495.925602485435</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>44075</v>
+        <v>43709</v>
       </c>
       <c r="B226" t="n">
-        <v>0.564663711979483</v>
+        <v>1.01392944051344</v>
       </c>
       <c r="C226" t="n">
-        <v>85.8276040207422</v>
+        <v>502.833568664349</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="B227" t="n">
-        <v>0.562537126962617</v>
+        <v>1.01176238174637</v>
       </c>
       <c r="C227" t="n">
-        <v>85.5043679195517</v>
+        <v>508.748089053869</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>44136</v>
+        <v>43770</v>
       </c>
       <c r="B228" t="n">
-        <v>0.567120086041746</v>
+        <v>0.980850049167716</v>
       </c>
       <c r="C228" t="n">
-        <v>86.2009673091385</v>
+        <v>499.005588162469</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>44166</v>
+        <v>43800</v>
       </c>
       <c r="B229" t="n">
-        <v>0.573898486878198</v>
+        <v>0.972630715183286</v>
       </c>
       <c r="C229" t="n">
-        <v>87.231268868354</v>
+        <v>485.348162094918</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="B230" t="n">
-        <v>0.427364916018463</v>
+        <v>0.985552212479588</v>
       </c>
       <c r="C230" t="n">
-        <v>64.9584983171775</v>
+        <v>478.335954975548</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>44228</v>
+        <v>43862</v>
       </c>
       <c r="B231" t="n">
-        <v>0.427155131235348</v>
+        <v>0.989912906090247</v>
       </c>
       <c r="C231" t="n">
-        <v>64.9266115057659</v>
+        <v>473.510935277299</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>44256</v>
+        <v>43891</v>
       </c>
       <c r="B232" t="n">
-        <v>0.417203002783601</v>
+        <v>0.967148381392443</v>
       </c>
       <c r="C232" t="n">
-        <v>63.4139105444703</v>
+        <v>457.955334625061</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>44287</v>
+        <v>43922</v>
       </c>
       <c r="B233" t="n">
-        <v>0.411209247302066</v>
+        <v>1.00450278391058</v>
       </c>
       <c r="C233" t="n">
-        <v>62.5028733002619</v>
+        <v>460.017408537577</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>44317</v>
+        <v>43952</v>
       </c>
       <c r="B234" t="n">
-        <v>0.410802800802143</v>
+        <v>1.01748007029252</v>
       </c>
       <c r="C234" t="n">
-        <v>62.4410943537652</v>
+        <v>468.058545174594</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>44348</v>
+        <v>43983</v>
       </c>
       <c r="B235" t="n">
-        <v>0.405068628644857</v>
+        <v>1.02699063755341</v>
       </c>
       <c r="C235" t="n">
-        <v>61.5695131863176</v>
+        <v>480.691743721177</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>44378</v>
+        <v>44013</v>
       </c>
       <c r="B236" t="n">
-        <v>0.395469506618147</v>
+        <v>1.01772081248365</v>
       </c>
       <c r="C236" t="n">
-        <v>60.1104684012949</v>
+        <v>489.209991974101</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>44409</v>
+        <v>44044</v>
       </c>
       <c r="B237" t="n">
-        <v>0.391194224948208</v>
+        <v>1.00756095901331</v>
       </c>
       <c r="C237" t="n">
-        <v>59.4606352803417</v>
+        <v>492.908888672321</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>44440</v>
+        <v>44075</v>
       </c>
       <c r="B238" t="n">
-        <v>0.386233677904681</v>
+        <v>1.00535118853363</v>
       </c>
       <c r="C238" t="n">
-        <v>58.7066433762301</v>
+        <v>495.546537065509</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>44470</v>
+        <v>44105</v>
       </c>
       <c r="B239" t="n">
-        <v>0.377928994459829</v>
+        <v>0.997195234749981</v>
       </c>
       <c r="C239" t="n">
-        <v>57.4443503209111</v>
+        <v>494.15664535858</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>44501</v>
+        <v>44136</v>
       </c>
       <c r="B240" t="n">
-        <v>0.373033670920173</v>
+        <v>1.00916399355828</v>
       </c>
       <c r="C240" t="n">
-        <v>56.7002722415138</v>
+        <v>498.685093673429</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>44531</v>
+        <v>44166</v>
       </c>
       <c r="B241" t="n">
-        <v>0.364006539290091</v>
+        <v>1.01031276734274</v>
       </c>
       <c r="C241" t="n">
-        <v>55.3281686999675</v>
+        <v>503.827917021775</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="B242" t="n">
-        <v>0.430624324391316</v>
+        <v>0.998657052895939</v>
       </c>
       <c r="C242" t="n">
-        <v>65.4539210001518</v>
+        <v>503.151302779665</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>44593</v>
+        <v>44228</v>
       </c>
       <c r="B243" t="n">
-        <v>0.425856600045301</v>
+        <v>0.998983143114301</v>
       </c>
       <c r="C243" t="n">
-        <v>64.7292377088963</v>
+        <v>502.639669912885</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>44621</v>
+        <v>44256</v>
       </c>
       <c r="B244" t="n">
-        <v>0.413961902345027</v>
+        <v>0.972519028818393</v>
       </c>
       <c r="C244" t="n">
-        <v>62.9212706259989</v>
+        <v>488.826643629277</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>44652</v>
+        <v>44287</v>
       </c>
       <c r="B245" t="n">
-        <v>0.409036259294936</v>
+        <v>0.984627757256208</v>
       </c>
       <c r="C245" t="n">
-        <v>62.1725840497556</v>
+        <v>481.312281803774</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>44682</v>
+        <v>44317</v>
       </c>
       <c r="B246" t="n">
-        <v>0.400671228427759</v>
+        <v>0.993558435359757</v>
       </c>
       <c r="C246" t="n">
-        <v>60.9011183230623</v>
+        <v>478.211877628392</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>44713</v>
+        <v>44348</v>
       </c>
       <c r="B247" t="n">
-        <v>0.398260790132225</v>
+        <v>0.980694797798758</v>
       </c>
       <c r="C247" t="n">
-        <v>60.5347371670637</v>
+        <v>468.979900635741</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44743</v>
+        <v>44378</v>
       </c>
       <c r="B248" t="n">
-        <v>0.382726959136184</v>
+        <v>0.971535014471752</v>
       </c>
       <c r="C248" t="n">
-        <v>58.1736300738178</v>
+        <v>455.630394551105</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44774</v>
+        <v>44409</v>
       </c>
       <c r="B249" t="n">
-        <v>0.380303571137066</v>
+        <v>0.986330243115675</v>
       </c>
       <c r="C249" t="n">
-        <v>57.8052805922338</v>
+        <v>449.402037828482</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44805</v>
+        <v>44440</v>
       </c>
       <c r="B250" t="n">
-        <v>0.376808109189282</v>
+        <v>0.983797049239272</v>
       </c>
       <c r="C250" t="n">
-        <v>57.2739783010482</v>
+        <v>442.120398737776</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44835</v>
+        <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>0.372990353841627</v>
+        <v>0.974870442542386</v>
       </c>
       <c r="C251" t="n">
-        <v>56.6936881437829</v>
+        <v>431.010108774512</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44866</v>
+        <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>0.381909565555523</v>
+        <v>0.984159653631069</v>
       </c>
       <c r="C252" t="n">
-        <v>58.0493881027441</v>
+        <v>424.182759363013</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44896</v>
+        <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>0.392122485452251</v>
+        <v>0.970389579476204</v>
       </c>
       <c r="C253" t="n">
-        <v>59.6017287724129</v>
+        <v>411.62252947933</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>44927</v>
+        <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>0.388813100252628</v>
+        <v>0.996014937670265</v>
       </c>
       <c r="C254" t="n">
-        <v>59.0987097250765</v>
+        <v>409.982188043032</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>44958</v>
+        <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>0.385974360250385</v>
+        <v>0.985858766915147</v>
       </c>
       <c r="C255" t="n">
-        <v>58.6672276806996</v>
+        <v>404.184534361277</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>44986</v>
+        <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>0.380557229607331</v>
+        <v>0.964981649404679</v>
       </c>
       <c r="C256" t="n">
-        <v>57.843836104622</v>
+        <v>390.030658631808</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>45017</v>
+        <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>0.380475860802636</v>
+        <v>0.983989096864365</v>
       </c>
       <c r="C257" t="n">
-        <v>57.8314682307869</v>
+        <v>383.785915536526</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>45047</v>
+        <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>0.3769687797849</v>
+        <v>0.975635927716666</v>
       </c>
       <c r="C258" t="n">
-        <v>57.2983998673114</v>
+        <v>374.435327749068</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>45078</v>
+        <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>0.380022897984716</v>
+        <v>0.991531611962433</v>
       </c>
       <c r="C259" t="n">
-        <v>57.762618909416</v>
+        <v>371.264464098716</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>45108</v>
+        <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>0.384353581867782</v>
+        <v>0.952252453735011</v>
       </c>
       <c r="C260" t="n">
-        <v>58.4208730411572</v>
+        <v>353.537496922616</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>45139</v>
+        <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>0.402848603580468</v>
+        <v>0.993061406687883</v>
       </c>
       <c r="C261" t="n">
-        <v>61.23207440975</v>
+        <v>351.084444010886</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>45170</v>
+        <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>0.389262345617479</v>
+        <v>0.989736216516718</v>
       </c>
       <c r="C262" t="n">
-        <v>59.1669940020092</v>
+        <v>347.48098929321</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>45200</v>
+        <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>0.36410355700196</v>
+        <v>0.988962092710708</v>
       </c>
       <c r="C263" t="n">
-        <v>55.342915172214</v>
+        <v>343.6455263486</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>45231</v>
+        <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>0.339797078794349</v>
+        <v>1.02785706897866</v>
       </c>
       <c r="C264" t="n">
-        <v>51.6483855920708</v>
+        <v>353.218483480301</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>45261</v>
+        <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>0.449690409568139</v>
+        <v>1.03317308237055</v>
       </c>
       <c r="C265" t="n">
-        <v>68.3519227205838</v>
+        <v>364.935829327593</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>45292</v>
+        <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>0.670125912620209</v>
+        <v>1.01005338719952</v>
       </c>
       <c r="C266" t="n">
-        <v>101.857619415245</v>
+        <v>368.6046705228</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>45323</v>
+        <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>0.616414824902314</v>
+        <v>0.978584143600682</v>
       </c>
       <c r="C267" t="n">
-        <v>93.6936558553869</v>
+        <v>360.710685830766</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>45352</v>
+        <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>0.57754607626431</v>
+        <v>0.985949694083788</v>
       </c>
       <c r="C268" t="n">
-        <v>87.7856941852635</v>
+        <v>355.642590347597</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>45383</v>
+        <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>0.547990680095892</v>
+        <v>0.998460170245461</v>
       </c>
       <c r="C269" t="n">
-        <v>83.2933409753739</v>
+        <v>355.094961304998</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>45413</v>
+        <v>45047</v>
       </c>
       <c r="B270" t="n">
-        <v>0.543291049785712</v>
+        <v>0.989876659479397</v>
       </c>
       <c r="C270" t="n">
-        <v>82.5790078231832</v>
+        <v>351.500214094557</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>45444</v>
+        <v>45078</v>
       </c>
       <c r="B271" t="n">
-        <v>0.530796226882557</v>
+        <v>1.01342157815302</v>
       </c>
       <c r="C271" t="n">
-        <v>80.679823070046</v>
+        <v>356.217901688831</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>45474</v>
+        <v>45108</v>
       </c>
       <c r="B272" t="n">
-        <v>0.526073808188627</v>
+        <v>1.01582633659375</v>
       </c>
       <c r="C272" t="n">
-        <v>79.962026135191</v>
+        <v>361.855526101676</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>45505</v>
+        <v>45139</v>
       </c>
       <c r="B273" t="n">
-        <v>0.521230224544465</v>
+        <v>1.06823952204387</v>
       </c>
       <c r="C273" t="n">
-        <v>79.2258124026046</v>
+        <v>386.548374251787</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>45536</v>
+        <v>45170</v>
       </c>
       <c r="B274" t="n">
-        <v>0.518760378236925</v>
+        <v>0.957185725784941</v>
       </c>
       <c r="C274" t="n">
-        <v>78.8504013634704</v>
+        <v>369.998586159186</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>45566</v>
+        <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>0.514899804602163</v>
+        <v>0.915301126188767</v>
       </c>
       <c r="C275" t="n">
-        <v>78.263602923642</v>
+        <v>338.660122599754</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>45597</v>
+        <v>45231</v>
       </c>
       <c r="B276" t="n">
-        <v>0.507034268235799</v>
+        <v>0.909518952900302</v>
       </c>
       <c r="C276" t="n">
-        <v>77.068059228623</v>
+        <v>308.017800096016</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1.45985538938337</v>
+      </c>
+      <c r="C277" t="n">
+        <v>449.661445496179</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1.04321443018385</v>
+      </c>
+      <c r="C278" t="n">
+        <v>469.093308638944</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.898473179942163</v>
+      </c>
+      <c r="C279" t="n">
+        <v>421.467756702422</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.917705552474174</v>
+      </c>
+      <c r="C280" t="n">
+        <v>386.783300514647</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.936152231045007</v>
+      </c>
+      <c r="C281" t="n">
+        <v>362.088049707739</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.985126905373763</v>
+      </c>
+      <c r="C282" t="n">
+        <v>356.702679881406</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.970775575926299</v>
+      </c>
+      <c r="C283" t="n">
+        <v>346.278249496326</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.988956396547424</v>
+      </c>
+      <c r="C284" t="n">
+        <v>342.454089824636</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.988738003795858</v>
+      </c>
+      <c r="C285" t="n">
+        <v>338.597373164938</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.993040701961734</v>
+      </c>
+      <c r="C286" t="n">
+        <v>336.240973130109</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.991268531545633</v>
+      </c>
+      <c r="C287" t="n">
+        <v>333.305095680158</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.982765241808065</v>
+      </c>
+      <c r="C288" t="n">
+        <v>327.560662951971</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
         <v>45627</v>
       </c>
-      <c r="B277" t="n">
-        <v>0.499916315353715</v>
-      </c>
-      <c r="C277" t="n">
-        <v>75.9861465283007</v>
+      <c r="B289" t="n">
+        <v>0.984589970633056</v>
+      </c>
+      <c r="C289" t="n">
+        <v>322.512943516425</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+      <c r="C290" t="n">
+        <v>322.512943516425</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+      <c r="C291" t="n">
+        <v>322.512943516425</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+      <c r="C292" t="n">
+        <v>322.512943516425</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+      <c r="C293" t="n">
+        <v>322.512943516425</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+      <c r="C294" t="n">
+        <v>322.512943516425</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+      <c r="C295" t="n">
+        <v>322.512943516425</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+      <c r="C296" t="n">
+        <v>322.512943516425</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+      <c r="C297" t="n">
+        <v>322.512943516425</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+      <c r="C298" t="n">
+        <v>322.512943516425</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+      <c r="C299" t="n">
+        <v>322.512943516425</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+      <c r="C300" t="n">
+        <v>322.512943516425</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+      <c r="C301" t="n">
+        <v>322.512943516425</v>
       </c>
     </row>
   </sheetData>
